--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna1-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna1-Epha7.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H2">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I2">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J2">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2114086666666667</v>
+        <v>0.1352566666666667</v>
       </c>
       <c r="N2">
-        <v>0.634226</v>
+        <v>0.40577</v>
       </c>
       <c r="O2">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329269</v>
       </c>
       <c r="P2">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329268</v>
       </c>
       <c r="Q2">
-        <v>5.036623681967779</v>
+        <v>3.209841601235556</v>
       </c>
       <c r="R2">
-        <v>45.32961313771001</v>
+        <v>28.88857441112</v>
       </c>
       <c r="S2">
-        <v>0.1320775336675182</v>
+        <v>0.1015215019555234</v>
       </c>
       <c r="T2">
-        <v>0.1320775336675183</v>
+        <v>0.1015215019555234</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H3">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I3">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J3">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.136667</v>
       </c>
       <c r="O3">
-        <v>0.03229966770813146</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="P3">
-        <v>0.03229966770813147</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="Q3">
-        <v>1.085323289716111</v>
+        <v>1.081103635350222</v>
       </c>
       <c r="R3">
-        <v>9.767909607445002</v>
+        <v>9.729932718152002</v>
       </c>
       <c r="S3">
-        <v>0.02846089610602327</v>
+        <v>0.03419335857198787</v>
       </c>
       <c r="T3">
-        <v>0.02846089610602328</v>
+        <v>0.03419335857198787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H4">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I4">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J4">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.144867</v>
+        <v>0.9440163333333332</v>
       </c>
       <c r="N4">
-        <v>3.434601</v>
+        <v>2.832049</v>
       </c>
       <c r="O4">
-        <v>0.8117282958579322</v>
+        <v>0.8188575111383802</v>
       </c>
       <c r="P4">
-        <v>0.8117282958579324</v>
+        <v>0.8188575111383801</v>
       </c>
       <c r="Q4">
-        <v>27.27543925148167</v>
+        <v>22.40290976892711</v>
       </c>
       <c r="R4">
-        <v>245.4789532633351</v>
+        <v>201.626187920344</v>
       </c>
       <c r="S4">
-        <v>0.715255491279121</v>
+        <v>0.708563639726047</v>
       </c>
       <c r="T4">
-        <v>0.7152554912791212</v>
+        <v>0.708563639726047</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H5">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I5">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J5">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.008575333333333332</v>
+        <v>0.028017</v>
       </c>
       <c r="N5">
-        <v>0.025726</v>
+        <v>0.084051</v>
       </c>
       <c r="O5">
-        <v>0.006080043108134296</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="P5">
-        <v>0.006080043108134298</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="Q5">
-        <v>0.2042996989122222</v>
+        <v>0.664885024584</v>
       </c>
       <c r="R5">
-        <v>1.83869729021</v>
+        <v>5.983965221256001</v>
       </c>
       <c r="S5">
-        <v>0.005357438249347353</v>
+        <v>0.02102911442655617</v>
       </c>
       <c r="T5">
-        <v>0.005357438249347353</v>
+        <v>0.02102911442655617</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7.413636</v>
       </c>
       <c r="I6">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J6">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2114086666666667</v>
+        <v>0.1352566666666667</v>
       </c>
       <c r="N6">
-        <v>0.634226</v>
+        <v>0.40577</v>
       </c>
       <c r="O6">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329269</v>
       </c>
       <c r="P6">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329268</v>
       </c>
       <c r="Q6">
-        <v>0.5224356339706666</v>
+        <v>0.3342478977466666</v>
       </c>
       <c r="R6">
-        <v>4.701920705736</v>
+        <v>3.00823107972</v>
       </c>
       <c r="S6">
-        <v>0.0137000527321337</v>
+        <v>0.01057165829979147</v>
       </c>
       <c r="T6">
-        <v>0.0137000527321337</v>
+        <v>0.01057165829979147</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.413636</v>
       </c>
       <c r="I7">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J7">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.136667</v>
       </c>
       <c r="O7">
-        <v>0.03229966770813146</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="P7">
-        <v>0.03229966770813147</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="Q7">
         <v>0.1125777101346667</v>
@@ -883,10 +883,10 @@
         <v>1.013199391212</v>
       </c>
       <c r="S7">
-        <v>0.002952173368393154</v>
+        <v>0.003560629974758117</v>
       </c>
       <c r="T7">
-        <v>0.002952173368393155</v>
+        <v>0.003560629974758118</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>7.413636</v>
       </c>
       <c r="I8">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J8">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.144867</v>
+        <v>0.9440163333333332</v>
       </c>
       <c r="N8">
-        <v>3.434601</v>
+        <v>2.832049</v>
       </c>
       <c r="O8">
-        <v>0.8117282958579322</v>
+        <v>0.8188575111383802</v>
       </c>
       <c r="P8">
-        <v>0.8117282958579324</v>
+        <v>0.8188575111383801</v>
       </c>
       <c r="Q8">
-        <v>2.829209068804</v>
+        <v>2.332864491129333</v>
       </c>
       <c r="R8">
-        <v>25.462881619236</v>
+        <v>20.995780420164</v>
       </c>
       <c r="S8">
-        <v>0.07419155760539482</v>
+        <v>0.07378429730208279</v>
       </c>
       <c r="T8">
-        <v>0.07419155760539484</v>
+        <v>0.07378429730208279</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>7.413636</v>
       </c>
       <c r="I9">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J9">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.008575333333333332</v>
+        <v>0.028017</v>
       </c>
       <c r="N9">
-        <v>0.025726</v>
+        <v>0.084051</v>
       </c>
       <c r="O9">
-        <v>0.006080043108134296</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="P9">
-        <v>0.006080043108134298</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="Q9">
-        <v>0.02119146663733333</v>
+        <v>0.069235946604</v>
       </c>
       <c r="R9">
-        <v>0.190723199736</v>
+        <v>0.6231235194360001</v>
       </c>
       <c r="S9">
-        <v>0.0005557128792999207</v>
+        <v>0.002189808146870821</v>
       </c>
       <c r="T9">
-        <v>0.0005557128792999209</v>
+        <v>0.002189808146870821</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7137869999999999</v>
+        <v>1.148663</v>
       </c>
       <c r="H10">
-        <v>2.141361</v>
+        <v>3.445989</v>
       </c>
       <c r="I10">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J10">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2114086666666667</v>
+        <v>0.1352566666666667</v>
       </c>
       <c r="N10">
-        <v>0.634226</v>
+        <v>0.40577</v>
       </c>
       <c r="O10">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329269</v>
       </c>
       <c r="P10">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329268</v>
       </c>
       <c r="Q10">
-        <v>0.150900757954</v>
+        <v>0.1553643285033333</v>
       </c>
       <c r="R10">
-        <v>1.358106821586</v>
+        <v>1.39827895653</v>
       </c>
       <c r="S10">
-        <v>0.00395713501695181</v>
+        <v>0.004913893562192711</v>
       </c>
       <c r="T10">
-        <v>0.00395713501695181</v>
+        <v>0.004913893562192709</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7137869999999999</v>
+        <v>1.148663</v>
       </c>
       <c r="H11">
-        <v>2.141361</v>
+        <v>3.445989</v>
       </c>
       <c r="I11">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J11">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.136667</v>
       </c>
       <c r="O11">
-        <v>0.03229966770813146</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="P11">
-        <v>0.03229966770813147</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="Q11">
-        <v>0.032517042643</v>
+        <v>0.05232810874033333</v>
       </c>
       <c r="R11">
-        <v>0.292653383787</v>
+        <v>0.470952978663</v>
       </c>
       <c r="S11">
-        <v>0.0008527082954053493</v>
+        <v>0.001655043722956826</v>
       </c>
       <c r="T11">
-        <v>0.0008527082954053495</v>
+        <v>0.001655043722956826</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7137869999999999</v>
+        <v>1.148663</v>
       </c>
       <c r="H12">
-        <v>2.141361</v>
+        <v>3.445989</v>
       </c>
       <c r="I12">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J12">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.144867</v>
+        <v>0.9440163333333332</v>
       </c>
       <c r="N12">
-        <v>3.434601</v>
+        <v>2.832049</v>
       </c>
       <c r="O12">
-        <v>0.8117282958579322</v>
+        <v>0.8188575111383802</v>
       </c>
       <c r="P12">
-        <v>0.8117282958579324</v>
+        <v>0.8188575111383801</v>
       </c>
       <c r="Q12">
-        <v>0.817191181329</v>
+        <v>1.084356633495666</v>
       </c>
       <c r="R12">
-        <v>7.354720631961</v>
+        <v>9.759209701460998</v>
       </c>
       <c r="S12">
-        <v>0.02142955332382732</v>
+        <v>0.03429624503761811</v>
       </c>
       <c r="T12">
-        <v>0.02142955332382732</v>
+        <v>0.03429624503761811</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7137869999999999</v>
+        <v>1.148663</v>
       </c>
       <c r="H13">
-        <v>2.141361</v>
+        <v>3.445989</v>
       </c>
       <c r="I13">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J13">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.008575333333333332</v>
+        <v>0.028017</v>
       </c>
       <c r="N13">
-        <v>0.025726</v>
+        <v>0.084051</v>
       </c>
       <c r="O13">
-        <v>0.006080043108134296</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="P13">
-        <v>0.006080043108134298</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="Q13">
-        <v>0.006120961453999998</v>
+        <v>0.032182091271</v>
       </c>
       <c r="R13">
-        <v>0.05508865308599999</v>
+        <v>0.289638821439</v>
       </c>
       <c r="S13">
-        <v>0.0001605125861224583</v>
+        <v>0.001017861517105403</v>
       </c>
       <c r="T13">
-        <v>0.0001605125861224584</v>
+        <v>0.001017861517105403</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.02836866666666667</v>
+        <v>0.07412966666666666</v>
       </c>
       <c r="H14">
-        <v>0.085106</v>
+        <v>0.222389</v>
       </c>
       <c r="I14">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509242</v>
       </c>
       <c r="J14">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509243</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2114086666666667</v>
+        <v>0.1352566666666667</v>
       </c>
       <c r="N14">
-        <v>0.634226</v>
+        <v>0.40577</v>
       </c>
       <c r="O14">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329269</v>
       </c>
       <c r="P14">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329268</v>
       </c>
       <c r="Q14">
-        <v>0.005997381995111111</v>
+        <v>0.01002653161444444</v>
       </c>
       <c r="R14">
-        <v>0.053976437956</v>
+        <v>0.09023878452999999</v>
       </c>
       <c r="S14">
-        <v>0.0001572719091982626</v>
+        <v>0.0003171211154192526</v>
       </c>
       <c r="T14">
-        <v>0.0001572719091982626</v>
+        <v>0.0003171211154192525</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.02836866666666667</v>
+        <v>0.07412966666666666</v>
       </c>
       <c r="H15">
-        <v>0.085106</v>
+        <v>0.222389</v>
       </c>
       <c r="I15">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509242</v>
       </c>
       <c r="J15">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509243</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.136667</v>
       </c>
       <c r="O15">
-        <v>0.03229966770813146</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="P15">
-        <v>0.03229966770813147</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="Q15">
-        <v>0.001292353522444444</v>
+        <v>0.003377026384777778</v>
       </c>
       <c r="R15">
-        <v>0.011631181702</v>
+        <v>0.030393237463</v>
       </c>
       <c r="S15">
-        <v>3.388993830968607E-05</v>
+        <v>0.0001068092551963008</v>
       </c>
       <c r="T15">
-        <v>3.388993830968607E-05</v>
+        <v>0.0001068092551963008</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.02836866666666667</v>
+        <v>0.07412966666666666</v>
       </c>
       <c r="H16">
-        <v>0.085106</v>
+        <v>0.222389</v>
       </c>
       <c r="I16">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509242</v>
       </c>
       <c r="J16">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509243</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.144867</v>
+        <v>0.9440163333333332</v>
       </c>
       <c r="N16">
-        <v>3.434601</v>
+        <v>2.832049</v>
       </c>
       <c r="O16">
-        <v>0.8117282958579322</v>
+        <v>0.8188575111383802</v>
       </c>
       <c r="P16">
-        <v>0.8117282958579324</v>
+        <v>0.8188575111383801</v>
       </c>
       <c r="Q16">
-        <v>0.03247835030066667</v>
+        <v>0.06997961611788887</v>
       </c>
       <c r="R16">
-        <v>0.292305152706</v>
+        <v>0.6298165450609999</v>
       </c>
       <c r="S16">
-        <v>0.0008516936495890454</v>
+        <v>0.002213329072632227</v>
       </c>
       <c r="T16">
-        <v>0.0008516936495890456</v>
+        <v>0.002213329072632227</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.02836866666666667</v>
+        <v>0.07412966666666666</v>
       </c>
       <c r="H17">
-        <v>0.085106</v>
+        <v>0.222389</v>
       </c>
       <c r="I17">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509242</v>
       </c>
       <c r="J17">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509243</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.008575333333333332</v>
+        <v>0.028017</v>
       </c>
       <c r="N17">
-        <v>0.025726</v>
+        <v>0.084051</v>
       </c>
       <c r="O17">
-        <v>0.006080043108134296</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="P17">
-        <v>0.006080043108134298</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="Q17">
-        <v>0.0002432707728888889</v>
+        <v>0.002076890871</v>
       </c>
       <c r="R17">
-        <v>0.002189436956</v>
+        <v>0.018692017839</v>
       </c>
       <c r="S17">
-        <v>6.379393364564844E-06</v>
+        <v>6.56883132614624E-05</v>
       </c>
       <c r="T17">
-        <v>6.379393364564846E-06</v>
+        <v>6.56883132614624E-05</v>
       </c>
     </row>
   </sheetData>
